--- a/maillist.xlsx
+++ b/maillist.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
   <si>
     <t>Nome Completo</t>
   </si>
@@ -685,7 +685,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -787,6 +787,9 @@
       <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
@@ -961,6 +964,9 @@
       <c r="B32" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
@@ -976,6 +982,9 @@
       </c>
       <c r="B34" s="8" t="s">
         <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3">

--- a/maillist.xlsx
+++ b/maillist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="24420" windowHeight="16240"/>
+    <workbookView xWindow="3640" yWindow="780" windowWidth="24420" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>Nome Completo</t>
   </si>
@@ -685,7 +685,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -731,6 +731,9 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
@@ -747,6 +750,9 @@
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
@@ -755,6 +761,9 @@
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
@@ -763,6 +772,9 @@
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
@@ -779,6 +791,9 @@
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -817,6 +832,9 @@
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
@@ -833,6 +851,9 @@
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
@@ -841,6 +862,9 @@
       <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
@@ -865,6 +889,9 @@
       <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
@@ -884,6 +911,9 @@
       <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
@@ -892,6 +922,9 @@
       <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
@@ -900,6 +933,9 @@
       <c r="B24" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
@@ -908,6 +944,9 @@
       <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
@@ -916,6 +955,9 @@
       <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
@@ -932,6 +974,9 @@
       <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
@@ -948,6 +993,9 @@
       <c r="B30" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
@@ -955,6 +1003,9 @@
       </c>
       <c r="B31" s="4" t="s">
         <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:3">
